--- a/upgrad/gesture-recognition-cnn-rnn/Experiment Results.xlsx
+++ b/upgrad/gesture-recognition-cnn-rnn/Experiment Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viyer/Google Drive/Upgrad/Assign7-Gesture-Recog/Gesture-Recog-VI-VR-Submission-Package/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viyer/GitHub/ds-ai-projects/upgrad/gesture-recognition-cnn-rnn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEE75BF-365C-5A43-8ECE-31A5F5F9ED5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629430C3-2FBC-0942-84B3-E853B5743AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -202,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="359">
   <si>
     <t>Model</t>
   </si>
@@ -1276,6 +1278,9 @@
   </si>
   <si>
     <t>24:30m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1892,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" ht="34">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1948,7 +1953,7 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" ht="16">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -2010,7 +2015,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" ht="16">
       <c r="A4" s="2"/>
       <c r="B4" s="9" t="s">
         <v>15</v>
@@ -2068,7 +2073,7 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" ht="16">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>32</v>
@@ -2130,7 +2135,7 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" ht="16">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -2192,7 +2197,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" ht="16">
       <c r="A7" s="2"/>
       <c r="B7" s="9" t="s">
         <v>15</v>
@@ -2254,7 +2259,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" ht="16">
       <c r="A8" s="2"/>
       <c r="B8" s="9" t="s">
         <v>15</v>
@@ -2316,7 +2321,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" ht="16">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2349,7 +2354,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" ht="16">
       <c r="A10" s="2"/>
       <c r="B10" s="9" t="s">
         <v>15</v>
@@ -2411,7 +2416,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" ht="16">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2444,7 +2449,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" ht="16">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2534,7 +2539,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" ht="34">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -2595,7 +2600,7 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" ht="16">
       <c r="A3" s="8">
         <v>6</v>
       </c>
@@ -2659,7 +2664,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" ht="16">
       <c r="A4" s="8">
         <v>7</v>
       </c>
@@ -2721,7 +2726,7 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" ht="16">
       <c r="A5" s="8">
         <v>8</v>
       </c>
@@ -2785,7 +2790,7 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" ht="16">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2818,7 +2823,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" ht="16">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2874,7 +2879,7 @@
     <col min="10" max="10" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" ht="16">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3">
@@ -2915,7 +2920,7 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" ht="34">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -3052,7 +3057,7 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" ht="16">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
@@ -3123,7 +3128,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" ht="16">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9" t="s">
@@ -3194,7 +3199,7 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" ht="16">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>39</v>
@@ -3267,7 +3272,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" ht="16">
       <c r="B7" s="16" t="s">
         <v>44</v>
       </c>
@@ -3337,7 +3342,7 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" ht="16">
       <c r="A8" s="16"/>
       <c r="B8" s="16">
         <v>9</v>
@@ -3410,7 +3415,7 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" ht="16">
       <c r="A9" s="19"/>
       <c r="B9" s="16" t="s">
         <v>48</v>
@@ -3483,7 +3488,7 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" ht="16">
       <c r="A10" s="19"/>
       <c r="B10" s="16" t="s">
         <v>48</v>
@@ -3556,7 +3561,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" ht="16">
       <c r="A11" s="16"/>
       <c r="B11" s="16" t="s">
         <v>53</v>
@@ -3631,7 +3636,7 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" ht="16">
       <c r="A12" s="24" t="s">
         <v>58</v>
       </c>
@@ -3708,7 +3713,7 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" ht="16">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
@@ -3819,7 +3824,7 @@
       <c r="AI14" s="29"/>
       <c r="AJ14" s="29"/>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" ht="16">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>66</v>
@@ -3892,7 +3897,7 @@
       <c r="AI15" s="29"/>
       <c r="AJ15" s="29"/>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" ht="16">
       <c r="A16" s="8"/>
       <c r="B16" s="8">
         <v>10</v>
@@ -3963,7 +3968,7 @@
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19"/>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" ht="16">
       <c r="A17" s="6"/>
       <c r="B17" s="6">
         <v>11</v>
@@ -4030,7 +4035,7 @@
       <c r="AI17" s="29"/>
       <c r="AJ17" s="29"/>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" ht="16">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="9" t="s">
@@ -4090,7 +4095,7 @@
       <c r="AI18" s="19"/>
       <c r="AJ18" s="19"/>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" ht="16">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
         <v>48</v>
@@ -4163,7 +4168,7 @@
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" ht="16">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>72</v>
@@ -4232,7 +4237,7 @@
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" ht="16">
       <c r="A21" s="37" t="s">
         <v>74</v>
       </c>
@@ -4307,7 +4312,7 @@
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" ht="16">
       <c r="A22" s="37" t="s">
         <v>84</v>
       </c>
@@ -4380,7 +4385,7 @@
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" ht="16">
       <c r="A23" s="43">
         <v>43818.513888888891</v>
       </c>
@@ -4455,7 +4460,7 @@
       <c r="AI23" s="25"/>
       <c r="AJ23" s="25"/>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" ht="16">
       <c r="A24" s="43">
         <v>43818.547222222223</v>
       </c>
@@ -4530,7 +4535,7 @@
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" ht="16">
       <c r="A25" s="52" t="s">
         <v>105</v>
       </c>
@@ -4605,7 +4610,7 @@
       <c r="AI25" s="25"/>
       <c r="AJ25" s="25"/>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" ht="16">
       <c r="A26" s="52" t="s">
         <v>113</v>
       </c>
@@ -4680,7 +4685,7 @@
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" ht="16">
       <c r="A27" s="52" t="s">
         <v>119</v>
       </c>
@@ -4755,7 +4760,7 @@
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" ht="16">
       <c r="A28" s="55">
         <v>43819.326388888891</v>
       </c>
@@ -4830,7 +4835,7 @@
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" ht="16">
       <c r="A29" s="52" t="s">
         <v>131</v>
       </c>
@@ -4907,7 +4912,7 @@
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" ht="16">
       <c r="A30" s="37" t="s">
         <v>137</v>
       </c>
@@ -4984,7 +4989,7 @@
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" ht="16">
       <c r="A31" s="52" t="s">
         <v>144</v>
       </c>
@@ -5061,7 +5066,7 @@
       <c r="AI31" s="25"/>
       <c r="AJ31" s="25"/>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" ht="16">
       <c r="A32" s="37" t="s">
         <v>150</v>
       </c>
@@ -5136,7 +5141,7 @@
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" ht="16">
       <c r="A33" s="37" t="s">
         <v>164</v>
       </c>
@@ -5196,7 +5201,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" ht="16">
       <c r="A34" s="37" t="s">
         <v>172</v>
       </c>
@@ -5271,7 +5276,7 @@
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" ht="16">
       <c r="A35" s="37" t="s">
         <v>183</v>
       </c>
@@ -5346,7 +5351,7 @@
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" ht="16">
       <c r="A36" s="70" t="s">
         <v>190</v>
       </c>
@@ -5423,7 +5428,7 @@
       <c r="AI36" s="82"/>
       <c r="AJ36" s="82"/>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" ht="16">
       <c r="A37" s="70" t="s">
         <v>216</v>
       </c>
@@ -5500,7 +5505,7 @@
       <c r="AI37" s="82"/>
       <c r="AJ37" s="82"/>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" ht="16">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="9" t="s">
@@ -5571,7 +5576,7 @@
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" ht="16">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="3" t="s">
@@ -5644,7 +5649,7 @@
       <c r="AI39" s="25"/>
       <c r="AJ39" s="25"/>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" ht="16">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="3" t="s">
@@ -5717,7 +5722,7 @@
       <c r="AI40" s="25"/>
       <c r="AJ40" s="25"/>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" ht="16">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="9" t="s">
@@ -5790,7 +5795,7 @@
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" ht="16">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="9"/>
@@ -5828,7 +5833,7 @@
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" ht="16">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="9" t="s">
@@ -5899,7 +5904,7 @@
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" ht="16">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="9" t="s">
@@ -6492,7 +6497,7 @@
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" ht="34">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -6562,7 +6567,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" ht="16">
       <c r="C3" s="38" t="s">
         <v>82</v>
       </c>
@@ -6613,7 +6618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" ht="16">
       <c r="C4" s="44" t="s">
         <v>82</v>
       </c>
@@ -6644,7 +6649,7 @@
         <v>-0.16666999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" ht="16">
       <c r="A5" s="48" t="s">
         <v>95</v>
       </c>
@@ -6705,7 +6710,7 @@
       <c r="AG5" s="51"/>
       <c r="AH5" s="51"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" ht="16">
       <c r="A6" s="48" t="s">
         <v>106</v>
       </c>
@@ -6740,7 +6745,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" ht="16">
       <c r="A7" s="48" t="s">
         <v>110</v>
       </c>
@@ -6775,7 +6780,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" ht="16">
       <c r="A8" s="48" t="s">
         <v>117</v>
       </c>
@@ -8564,7 +8569,7 @@
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" ht="51">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -8678,7 +8683,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" ht="15">
       <c r="B4" s="38" t="s">
         <v>83</v>
       </c>
@@ -8719,7 +8724,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" ht="15">
       <c r="B5" s="38" t="s">
         <v>83</v>
       </c>
@@ -8760,7 +8765,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" ht="15">
       <c r="A6" s="48" t="s">
         <v>98</v>
       </c>
@@ -8817,7 +8822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" ht="15">
       <c r="A7" s="48" t="s">
         <v>104</v>
       </c>
@@ -8966,7 +8971,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" ht="15">
       <c r="B10" s="38" t="s">
         <v>83</v>
       </c>
@@ -9017,7 +9022,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" ht="15">
       <c r="B11" s="38" t="s">
         <v>83</v>
       </c>
@@ -9099,7 +9104,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" ht="15">
       <c r="A13" s="48" t="s">
         <v>125</v>
       </c>
@@ -9153,7 +9158,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" ht="15">
       <c r="B14" s="38" t="s">
         <v>83</v>
       </c>
@@ -9201,7 +9206,7 @@
         <v>-5.4310000000000025E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" ht="15">
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -9260,7 +9265,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" ht="15">
       <c r="A17" s="61" t="s">
         <v>142</v>
       </c>
@@ -9335,7 +9340,7 @@
       <c r="AG17" s="66"/>
       <c r="AH17" s="66"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" ht="15">
       <c r="B18" s="38" t="s">
         <v>83</v>
       </c>
@@ -9425,7 +9430,7 @@
       <c r="AG19" s="67"/>
       <c r="AH19" s="67"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" ht="15">
       <c r="B20" s="38" t="s">
         <v>83</v>
       </c>
@@ -9479,7 +9484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" ht="15">
       <c r="B21" s="38" t="s">
         <v>83</v>
       </c>
@@ -9531,7 +9536,7 @@
       </c>
       <c r="R21" s="38"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" ht="15">
       <c r="B22" s="38" t="s">
         <v>83</v>
       </c>
@@ -9585,7 +9590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" ht="15">
       <c r="B23" s="38" t="s">
         <v>83</v>
       </c>
@@ -9639,7 +9644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" ht="15">
       <c r="B24" s="38" t="s">
         <v>83</v>
       </c>
@@ -9693,7 +9698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" ht="15">
       <c r="A25" s="48" t="s">
         <v>195</v>
       </c>
@@ -9750,7 +9755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" ht="15">
       <c r="A26" s="48" t="s">
         <v>198</v>
       </c>
@@ -9807,7 +9812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" ht="15">
       <c r="A27" s="77" t="s">
         <v>201</v>
       </c>
@@ -9882,7 +9887,7 @@
       <c r="AG27" s="85"/>
       <c r="AH27" s="85"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" ht="15">
       <c r="A28" s="48" t="s">
         <v>224</v>
       </c>
@@ -9929,7 +9934,7 @@
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" ht="15">
       <c r="A29" s="48" t="s">
         <v>230</v>
       </c>
@@ -9986,7 +9991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" ht="15">
       <c r="A30" s="48" t="s">
         <v>236</v>
       </c>
@@ -10043,7 +10048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" ht="15">
       <c r="A31" s="48" t="s">
         <v>241</v>
       </c>
@@ -10116,7 +10121,7 @@
       <c r="AG31" s="86"/>
       <c r="AH31" s="86"/>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" ht="15">
       <c r="A32" s="86"/>
       <c r="B32" s="87"/>
       <c r="C32" s="38" t="s">
@@ -10171,7 +10176,7 @@
       <c r="AG32" s="86"/>
       <c r="AH32" s="86"/>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" ht="15">
       <c r="A33" s="86"/>
       <c r="B33" s="87"/>
       <c r="C33" s="38" t="s">
@@ -10226,7 +10231,7 @@
       <c r="AG33" s="86"/>
       <c r="AH33" s="86"/>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" ht="15">
       <c r="A34" s="86"/>
       <c r="B34" s="87"/>
       <c r="C34" s="38" t="s">
@@ -10344,7 +10349,7 @@
       <c r="AG36" s="86"/>
       <c r="AH36" s="86"/>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" ht="15">
       <c r="B37" s="38" t="s">
         <v>83</v>
       </c>
@@ -10398,7 +10403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" ht="15">
       <c r="B38" s="38" t="s">
         <v>83</v>
       </c>
@@ -10452,7 +10457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:34" ht="15">
       <c r="B39" s="38" t="s">
         <v>83</v>
       </c>
@@ -10506,7 +10511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:34" ht="15">
       <c r="B40" s="38" t="s">
         <v>83</v>
       </c>
@@ -10560,7 +10565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:34" ht="15">
       <c r="B41" s="38" t="s">
         <v>83</v>
       </c>
@@ -10902,7 +10907,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -10957,7 +10962,7 @@
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" ht="34">
       <c r="A2" s="7" t="s">
         <v>323</v>
       </c>
@@ -11021,7 +11026,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" ht="16">
       <c r="A3" s="24" t="s">
         <v>324</v>
       </c>
@@ -11096,7 +11101,7 @@
       <c r="AG3" s="19"/>
       <c r="AH3" s="19"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" ht="16">
       <c r="A4" s="37" t="s">
         <v>324</v>
       </c>
@@ -11169,7 +11174,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" ht="16">
       <c r="A5" s="37" t="s">
         <v>329</v>
       </c>
@@ -11244,7 +11249,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" ht="16">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -11259,7 +11264,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" ht="16">
       <c r="A7" s="24" t="s">
         <v>333</v>
       </c>
@@ -11337,7 +11342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" ht="16">
       <c r="C9" s="38" t="s">
         <v>298</v>
       </c>
@@ -11361,7 +11366,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" ht="16">
       <c r="C10" s="38" t="s">
         <v>298</v>
       </c>
@@ -11385,7 +11390,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" ht="16">
       <c r="C11" s="38" t="s">
         <v>298</v>
       </c>
@@ -11409,7 +11414,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" ht="16">
       <c r="C12" s="38" t="s">
         <v>298</v>
       </c>
@@ -11433,7 +11438,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" ht="16">
       <c r="C13" s="38" t="s">
         <v>298</v>
       </c>
@@ -11485,7 +11490,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" ht="16">
       <c r="C15" s="38" t="s">
         <v>298</v>
       </c>
@@ -11512,7 +11517,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" ht="16">
       <c r="A16" s="24" t="s">
         <v>349</v>
       </c>
@@ -11539,7 +11544,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" ht="16">
       <c r="A17" s="24" t="s">
         <v>351</v>
       </c>
@@ -11566,7 +11571,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" ht="16">
       <c r="A18" s="24" t="s">
         <v>354</v>
       </c>
@@ -11583,7 +11588,7 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="38"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" ht="16">
       <c r="A19" s="24" t="s">
         <v>355</v>
       </c>
@@ -11613,37 +11618,40 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" ht="16">
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" ht="16">
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" ht="16">
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" ht="16">
+      <c r="I23" t="s">
+        <v>358</v>
+      </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" ht="16">
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" ht="16">
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" ht="16">
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
